--- a/data_year/zb/人口/人口抽样调查样本数据/按家庭户规模分的户数(人口抽样调查).xlsx
+++ b/data_year/zb/人口/人口抽样调查样本数据/按家庭户规模分的户数(人口抽样调查).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,681 +493,401 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28099</v>
+        <v>50488</v>
       </c>
       <c r="C2" t="n">
-        <v>5608</v>
+        <v>3986</v>
       </c>
       <c r="D2" t="n">
-        <v>115687</v>
+        <v>99854</v>
       </c>
       <c r="E2" t="n">
-        <v>757</v>
+        <v>654</v>
       </c>
       <c r="F2" t="n">
-        <v>67225</v>
+        <v>93719</v>
       </c>
       <c r="G2" t="n">
-        <v>43049</v>
+        <v>33903</v>
       </c>
       <c r="H2" t="n">
-        <v>2187</v>
+        <v>1643</v>
       </c>
       <c r="I2" t="n">
-        <v>17652</v>
+        <v>14716</v>
       </c>
       <c r="J2" t="n">
-        <v>625</v>
+        <v>506</v>
       </c>
       <c r="K2" t="n">
-        <v>84193</v>
+        <v>60977</v>
       </c>
       <c r="L2" t="n">
-        <v>365083</v>
+        <v>360447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28112</v>
+        <v>50261</v>
       </c>
       <c r="C3" t="n">
-        <v>5733</v>
+        <v>3812</v>
       </c>
       <c r="D3" t="n">
-        <v>116558</v>
+        <v>98432</v>
       </c>
       <c r="E3" t="n">
-        <v>841</v>
+        <v>650</v>
       </c>
       <c r="F3" t="n">
-        <v>70068</v>
+        <v>94323</v>
       </c>
       <c r="G3" t="n">
-        <v>42188</v>
+        <v>32830</v>
       </c>
       <c r="H3" t="n">
-        <v>2344</v>
+        <v>1478</v>
       </c>
       <c r="I3" t="n">
-        <v>17341</v>
+        <v>14683</v>
       </c>
       <c r="J3" t="n">
-        <v>676</v>
+        <v>547</v>
       </c>
       <c r="K3" t="n">
-        <v>83688</v>
+        <v>59938</v>
       </c>
       <c r="L3" t="n">
-        <v>367550</v>
+        <v>356954</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28761</v>
+        <v>52764</v>
       </c>
       <c r="C4" t="n">
-        <v>5349</v>
+        <v>4115</v>
       </c>
       <c r="D4" t="n">
-        <v>115568</v>
+        <v>97541</v>
       </c>
       <c r="E4" t="n">
-        <v>850</v>
+        <v>575</v>
       </c>
       <c r="F4" t="n">
-        <v>72225</v>
+        <v>98671</v>
       </c>
       <c r="G4" t="n">
-        <v>45584</v>
+        <v>30776</v>
       </c>
       <c r="H4" t="n">
-        <v>2149</v>
+        <v>1539</v>
       </c>
       <c r="I4" t="n">
-        <v>16183</v>
+        <v>14032</v>
       </c>
       <c r="J4" t="n">
-        <v>706</v>
+        <v>502</v>
       </c>
       <c r="K4" t="n">
-        <v>80242</v>
+        <v>61517</v>
       </c>
       <c r="L4" t="n">
-        <v>367617</v>
+        <v>362031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>567455</v>
+        <v>54531</v>
       </c>
       <c r="C5" t="n">
-        <v>58212</v>
+        <v>4071</v>
       </c>
       <c r="D5" t="n">
-        <v>1577147</v>
+        <v>97490</v>
       </c>
       <c r="E5" t="n">
-        <v>8383</v>
+        <v>676</v>
       </c>
       <c r="F5" t="n">
-        <v>1294464</v>
+        <v>101053</v>
       </c>
       <c r="G5" t="n">
-        <v>538035</v>
+        <v>32010</v>
       </c>
       <c r="H5" t="n">
-        <v>22028</v>
+        <v>1618</v>
       </c>
       <c r="I5" t="n">
-        <v>199448</v>
+        <v>15322</v>
       </c>
       <c r="J5" t="n">
-        <v>7205</v>
+        <v>534</v>
       </c>
       <c r="K5" t="n">
-        <v>1014177</v>
+        <v>58111</v>
       </c>
       <c r="L5" t="n">
-        <v>5286554</v>
+        <v>365416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33646</v>
+        <v>835737</v>
       </c>
       <c r="C6" t="n">
-        <v>3732</v>
+        <v>88924</v>
       </c>
       <c r="D6" t="n">
-        <v>112944</v>
+        <v>1679039</v>
       </c>
       <c r="E6" t="n">
-        <v>461</v>
+        <v>14667</v>
       </c>
       <c r="F6" t="n">
-        <v>89000</v>
+        <v>1606929</v>
       </c>
       <c r="G6" t="n">
-        <v>39697</v>
+        <v>655911</v>
       </c>
       <c r="H6" t="n">
-        <v>1352</v>
+        <v>34229</v>
       </c>
       <c r="I6" t="n">
-        <v>13228</v>
+        <v>289024</v>
       </c>
       <c r="J6" t="n">
-        <v>365</v>
+        <v>13669</v>
       </c>
       <c r="K6" t="n">
-        <v>73757</v>
+        <v>1137662</v>
       </c>
       <c r="L6" t="n">
-        <v>368180</v>
+        <v>6355790</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32850</v>
+        <v>51347</v>
       </c>
       <c r="C7" t="n">
-        <v>3588</v>
+        <v>4744</v>
       </c>
       <c r="D7" t="n">
-        <v>111498</v>
+        <v>95094</v>
       </c>
       <c r="E7" t="n">
-        <v>413</v>
+        <v>743</v>
       </c>
       <c r="F7" t="n">
-        <v>89708</v>
+        <v>93925</v>
       </c>
       <c r="G7" t="n">
-        <v>37141</v>
+        <v>35430</v>
       </c>
       <c r="H7" t="n">
-        <v>1274</v>
+        <v>1777</v>
       </c>
       <c r="I7" t="n">
-        <v>13763</v>
+        <v>15813</v>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>664</v>
       </c>
       <c r="K7" t="n">
-        <v>76715</v>
+        <v>64894</v>
       </c>
       <c r="L7" t="n">
-        <v>367260</v>
+        <v>364431</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32610</v>
+        <v>57226</v>
       </c>
       <c r="C8" t="n">
-        <v>3495</v>
+        <v>4533</v>
       </c>
       <c r="D8" t="n">
-        <v>110819</v>
+        <v>90883</v>
       </c>
       <c r="E8" t="n">
-        <v>468</v>
+        <v>678</v>
       </c>
       <c r="F8" t="n">
-        <v>89733</v>
+        <v>100061</v>
       </c>
       <c r="G8" t="n">
-        <v>36361</v>
+        <v>32866</v>
       </c>
       <c r="H8" t="n">
-        <v>1227</v>
+        <v>1688</v>
       </c>
       <c r="I8" t="n">
-        <v>13423</v>
+        <v>15854</v>
       </c>
       <c r="J8" t="n">
-        <v>319</v>
+        <v>629</v>
       </c>
       <c r="K8" t="n">
-        <v>76675</v>
+        <v>62853</v>
       </c>
       <c r="L8" t="n">
-        <v>365130</v>
+        <v>367273</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36513</v>
+        <v>61961</v>
       </c>
       <c r="C9" t="n">
-        <v>3756</v>
+        <v>4967</v>
       </c>
       <c r="D9" t="n">
-        <v>106959</v>
+        <v>86851</v>
       </c>
       <c r="E9" t="n">
-        <v>462</v>
+        <v>696</v>
       </c>
       <c r="F9" t="n">
-        <v>91006</v>
+        <v>105040</v>
       </c>
       <c r="G9" t="n">
-        <v>38496</v>
+        <v>31873</v>
       </c>
       <c r="H9" t="n">
-        <v>1432</v>
+        <v>1667</v>
       </c>
       <c r="I9" t="n">
-        <v>13801</v>
+        <v>16334</v>
       </c>
       <c r="J9" t="n">
-        <v>351</v>
+        <v>728</v>
       </c>
       <c r="K9" t="n">
-        <v>71173</v>
+        <v>61107</v>
       </c>
       <c r="L9" t="n">
-        <v>363948</v>
+        <v>371225</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50488</v>
+        <v>67160</v>
       </c>
       <c r="C10" t="n">
-        <v>3986</v>
+        <v>4391</v>
       </c>
       <c r="D10" t="n">
-        <v>99854</v>
+        <v>81119</v>
       </c>
       <c r="E10" t="n">
-        <v>654</v>
+        <v>596</v>
       </c>
       <c r="F10" t="n">
-        <v>93719</v>
+        <v>107657</v>
       </c>
       <c r="G10" t="n">
-        <v>33903</v>
+        <v>28241</v>
       </c>
       <c r="H10" t="n">
-        <v>1643</v>
+        <v>1497</v>
       </c>
       <c r="I10" t="n">
-        <v>14716</v>
+        <v>14757</v>
       </c>
       <c r="J10" t="n">
-        <v>506</v>
+        <v>598</v>
       </c>
       <c r="K10" t="n">
-        <v>60977</v>
+        <v>57959</v>
       </c>
       <c r="L10" t="n">
-        <v>360447</v>
+        <v>363974</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50261</v>
+        <v>86969</v>
       </c>
       <c r="C11" t="n">
-        <v>3812</v>
+        <v>10154</v>
       </c>
       <c r="D11" t="n">
-        <v>98432</v>
+        <v>110090</v>
       </c>
       <c r="E11" t="n">
-        <v>650</v>
+        <v>1648</v>
       </c>
       <c r="F11" t="n">
-        <v>94323</v>
+        <v>124057</v>
       </c>
       <c r="G11" t="n">
-        <v>32830</v>
+        <v>48583</v>
       </c>
       <c r="H11" t="n">
-        <v>1478</v>
+        <v>3742</v>
       </c>
       <c r="I11" t="n">
-        <v>14683</v>
+        <v>28556</v>
       </c>
       <c r="J11" t="n">
-        <v>547</v>
+        <v>1654</v>
       </c>
       <c r="K11" t="n">
-        <v>59938</v>
+        <v>94679</v>
       </c>
       <c r="L11" t="n">
-        <v>356954</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>52764</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4115</v>
-      </c>
-      <c r="D12" t="n">
-        <v>97541</v>
-      </c>
-      <c r="E12" t="n">
-        <v>575</v>
-      </c>
-      <c r="F12" t="n">
-        <v>98671</v>
-      </c>
-      <c r="G12" t="n">
-        <v>30776</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1539</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14032</v>
-      </c>
-      <c r="J12" t="n">
-        <v>502</v>
-      </c>
-      <c r="K12" t="n">
-        <v>61517</v>
-      </c>
-      <c r="L12" t="n">
-        <v>362031</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>54531</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4071</v>
-      </c>
-      <c r="D13" t="n">
-        <v>97490</v>
-      </c>
-      <c r="E13" t="n">
-        <v>676</v>
-      </c>
-      <c r="F13" t="n">
-        <v>101053</v>
-      </c>
-      <c r="G13" t="n">
-        <v>32010</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1618</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15322</v>
-      </c>
-      <c r="J13" t="n">
-        <v>534</v>
-      </c>
-      <c r="K13" t="n">
-        <v>58111</v>
-      </c>
-      <c r="L13" t="n">
-        <v>365416</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>835737</v>
-      </c>
-      <c r="C14" t="n">
-        <v>88924</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1679039</v>
-      </c>
-      <c r="E14" t="n">
-        <v>14667</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1606929</v>
-      </c>
-      <c r="G14" t="n">
-        <v>655911</v>
-      </c>
-      <c r="H14" t="n">
-        <v>34229</v>
-      </c>
-      <c r="I14" t="n">
-        <v>289024</v>
-      </c>
-      <c r="J14" t="n">
-        <v>13669</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1137662</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6355790</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>51347</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4744</v>
-      </c>
-      <c r="D15" t="n">
-        <v>95094</v>
-      </c>
-      <c r="E15" t="n">
-        <v>743</v>
-      </c>
-      <c r="F15" t="n">
-        <v>93925</v>
-      </c>
-      <c r="G15" t="n">
-        <v>35430</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1777</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15813</v>
-      </c>
-      <c r="J15" t="n">
-        <v>664</v>
-      </c>
-      <c r="K15" t="n">
-        <v>64894</v>
-      </c>
-      <c r="L15" t="n">
-        <v>364431</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>57226</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4533</v>
-      </c>
-      <c r="D16" t="n">
-        <v>90883</v>
-      </c>
-      <c r="E16" t="n">
-        <v>678</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100061</v>
-      </c>
-      <c r="G16" t="n">
-        <v>32866</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1688</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15854</v>
-      </c>
-      <c r="J16" t="n">
-        <v>629</v>
-      </c>
-      <c r="K16" t="n">
-        <v>62853</v>
-      </c>
-      <c r="L16" t="n">
-        <v>367273</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>61961</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4967</v>
-      </c>
-      <c r="D17" t="n">
-        <v>86851</v>
-      </c>
-      <c r="E17" t="n">
-        <v>696</v>
-      </c>
-      <c r="F17" t="n">
-        <v>105040</v>
-      </c>
-      <c r="G17" t="n">
-        <v>31873</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1667</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16334</v>
-      </c>
-      <c r="J17" t="n">
-        <v>728</v>
-      </c>
-      <c r="K17" t="n">
-        <v>61107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>371225</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>67160</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4391</v>
-      </c>
-      <c r="D18" t="n">
-        <v>81119</v>
-      </c>
-      <c r="E18" t="n">
-        <v>596</v>
-      </c>
-      <c r="F18" t="n">
-        <v>107657</v>
-      </c>
-      <c r="G18" t="n">
-        <v>28241</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1497</v>
-      </c>
-      <c r="I18" t="n">
-        <v>14757</v>
-      </c>
-      <c r="J18" t="n">
-        <v>598</v>
-      </c>
-      <c r="K18" t="n">
-        <v>57959</v>
-      </c>
-      <c r="L18" t="n">
-        <v>363974</v>
+        <v>510132</v>
       </c>
     </row>
   </sheetData>
